--- a/일괄등록/03_스낵제과.xlsx
+++ b/일괄등록/03_스낵제과.xlsx
@@ -1100,24 +1100,6 @@
     <t>맛동산(1500)[9564/1]</t>
   </si>
   <si>
-    <t>츄파춥스 팝아트틴/150개,스낵,농심</t>
-  </si>
-  <si>
-    <t>츄파춥스 미니튜브®/50개,스낵,농심</t>
-  </si>
-  <si>
-    <t>츄파춥스 슬림휠/120개 ,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C0867믹스그레이프(바틀)/1case,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C0868스무디(바틀)/1case,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C0869요구르트맛(바틀)/1case,스낵,농심</t>
-  </si>
-  <si>
     <t>포테토칩 오리지널(60g),스낵,농심</t>
   </si>
   <si>
@@ -1143,18 +1125,6 @@
   </si>
   <si>
     <t>양파링(중),스낵,농심</t>
-  </si>
-  <si>
-    <t>츄파춥스 크레모사딸기디스플레이/20개,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C1035푸르티/1case,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C1036뉴레인보우/1case,스낵,농심</t>
-  </si>
-  <si>
-    <t>멘토스C1033믹스그레이프/1case,스낵,농심</t>
   </si>
   <si>
     <t>새우깡(400g),스낵,농심</t>
@@ -3120,6 +3090,36 @@
   <si>
     <t>맛동산(1500)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>츄파춥스 팝아트틴/150개,스낵,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>츄파춥스 미니튜브®/50개,스낵,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>츄파춥스 슬림휠/120개 ,스낵,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>멘토스C0867믹스그레이프(바틀)/1case,스낵,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C0868스무디(바틀)/1case,스낵,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C0869요구르트맛(바틀)/1case,스낵,농심,멘토스</t>
+  </si>
+  <si>
+    <t>츄파춥스 크레모사딸기디스플레이/20개,스낵,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>멘토스C1035푸르티/1case,스낵,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C1036뉴레인보우/1case,스낵,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C1033믹스그레이프/1case,스낵,농심,멘토스</t>
   </si>
 </sst>
 </file>
@@ -4586,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CG17" sqref="CG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4608,7 +4608,7 @@
     <col min="64" max="64" width="16" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="83.25" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="32.625" customWidth="1"/>
-    <col min="84" max="84" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="55.5" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="39.625" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -4915,8 +4915,8 @@
         <v>86</v>
       </c>
       <c r="Q2" s="19"/>
-      <c r="R2" s="20" t="s">
-        <v>357</v>
+      <c r="R2" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>87</v>
@@ -4960,16 +4960,16 @@
       <c r="AR2" s="19"/>
       <c r="AS2" s="19"/>
       <c r="AT2" s="30" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="AU2" s="20" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AX2" s="65" t="s">
         <v>98</v>
@@ -5010,7 +5010,7 @@
         <v>89</v>
       </c>
       <c r="BT2" s="20" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="BU2" s="19"/>
       <c r="BV2" s="19"/>
@@ -5031,11 +5031,11 @@
       <c r="CE2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="20" t="s">
-        <v>357</v>
+      <c r="CF2" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="CG2" s="90" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="CH2" s="19" t="s">
         <v>94</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="1" t="s">
-        <v>358</v>
+        <v>998</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>87</v>
@@ -5124,16 +5124,16 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="4" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AX3" s="48" t="s">
         <v>98</v>
@@ -5174,7 +5174,7 @@
         <v>89</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="BU3" s="6"/>
       <c r="BV3" s="6"/>
@@ -5196,10 +5196,10 @@
         <v>96</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>358</v>
+        <v>998</v>
       </c>
       <c r="CG3" s="53" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="CH3" s="6" t="s">
         <v>94</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="1" t="s">
-        <v>359</v>
+        <v>999</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>87</v>
@@ -5288,16 +5288,16 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="47" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="AU4" s="41" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AV4" s="41" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AW4" s="41" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="AX4" s="48" t="s">
         <v>98</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="BR4" s="6"/>
       <c r="BS4" s="41" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="BT4" s="52">
         <v>2500</v>
@@ -5360,10 +5360,10 @@
         <v>96</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>359</v>
+        <v>999</v>
       </c>
       <c r="CG4" s="54" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="CH4" s="6" t="s">
         <v>94</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="1" t="s">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>87</v>
@@ -5452,16 +5452,16 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AX5" s="48" t="s">
         <v>98</v>
@@ -5502,7 +5502,7 @@
         <v>89</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU5" s="6"/>
       <c r="BV5" s="6"/>
@@ -5524,10 +5524,10 @@
         <v>96</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="CG5" s="53" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="CH5" s="6" t="s">
         <v>94</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="1" t="s">
-        <v>361</v>
+        <v>1001</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>87</v>
@@ -5616,16 +5616,16 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="4" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AX6" s="48" t="s">
         <v>98</v>
@@ -5666,7 +5666,7 @@
         <v>89</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU6" s="6"/>
       <c r="BV6" s="6"/>
@@ -5688,10 +5688,10 @@
         <v>96</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>361</v>
+        <v>1001</v>
       </c>
       <c r="CG6" s="53" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="CH6" s="6" t="s">
         <v>94</v>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1" t="s">
-        <v>362</v>
+        <v>1002</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>87</v>
@@ -5780,16 +5780,16 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="4" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="AX7" s="48" t="s">
         <v>98</v>
@@ -5830,7 +5830,7 @@
         <v>89</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU7" s="6"/>
       <c r="BV7" s="6"/>
@@ -5852,10 +5852,10 @@
         <v>96</v>
       </c>
       <c r="CF7" s="1" t="s">
-        <v>362</v>
+        <v>1002</v>
       </c>
       <c r="CG7" s="53" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="CH7" s="6" t="s">
         <v>94</v>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>87</v>
@@ -5944,16 +5944,16 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="4" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AX8" s="48" t="s">
         <v>98</v>
@@ -5994,7 +5994,7 @@
         <v>89</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU8" s="6"/>
       <c r="BV8" s="6"/>
@@ -6016,10 +6016,10 @@
         <v>96</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="CG8" s="55" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="CH8" s="6" t="s">
         <v>94</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>87</v>
@@ -6108,16 +6108,16 @@
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="4" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AX9" s="48" t="s">
         <v>98</v>
@@ -6158,7 +6158,7 @@
         <v>89</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU9" s="6"/>
       <c r="BV9" s="6"/>
@@ -6180,10 +6180,10 @@
         <v>96</v>
       </c>
       <c r="CF9" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="CG9" s="55" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="CH9" s="6" t="s">
         <v>94</v>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>87</v>
@@ -6272,16 +6272,16 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AX10" s="48" t="s">
         <v>98</v>
@@ -6322,7 +6322,7 @@
         <v>89</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU10" s="6"/>
       <c r="BV10" s="6"/>
@@ -6344,10 +6344,10 @@
         <v>96</v>
       </c>
       <c r="CF10" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="CG10" s="55" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="CH10" s="6" t="s">
         <v>94</v>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>87</v>
@@ -6436,16 +6436,16 @@
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="AX11" s="48" t="s">
         <v>98</v>
@@ -6486,7 +6486,7 @@
         <v>89</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU11" s="6"/>
       <c r="BV11" s="6"/>
@@ -6508,10 +6508,10 @@
         <v>96</v>
       </c>
       <c r="CF11" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="CG11" s="55" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="CH11" s="6" t="s">
         <v>94</v>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>87</v>
@@ -6600,16 +6600,16 @@
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="4" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AX12" s="48" t="s">
         <v>98</v>
@@ -6650,7 +6650,7 @@
         <v>89</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU12" s="6"/>
       <c r="BV12" s="6"/>
@@ -6672,10 +6672,10 @@
         <v>96</v>
       </c>
       <c r="CF12" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="CG12" s="55" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="CH12" s="6" t="s">
         <v>94</v>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>87</v>
@@ -6764,16 +6764,16 @@
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="4" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AX13" s="48" t="s">
         <v>98</v>
@@ -6836,10 +6836,10 @@
         <v>96</v>
       </c>
       <c r="CF13" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="CG13" s="55" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="CH13" s="6" t="s">
         <v>94</v>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>87</v>
@@ -6928,16 +6928,16 @@
       <c r="AR14" s="6"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="4" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AX14" s="48" t="s">
         <v>98</v>
@@ -7000,10 +7000,10 @@
         <v>96</v>
       </c>
       <c r="CF14" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="CG14" s="55" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="CH14" s="6" t="s">
         <v>94</v>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>87</v>
@@ -7092,16 +7092,16 @@
       <c r="AR15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AX15" s="48" t="s">
         <v>98</v>
@@ -7142,7 +7142,7 @@
         <v>89</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU15" s="6"/>
       <c r="BV15" s="6"/>
@@ -7164,10 +7164,10 @@
         <v>96</v>
       </c>
       <c r="CF15" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="CG15" s="55" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="CH15" s="6" t="s">
         <v>94</v>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>87</v>
@@ -7256,16 +7256,16 @@
       <c r="AR16" s="6"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="AX16" s="48" t="s">
         <v>98</v>
@@ -7306,7 +7306,7 @@
         <v>89</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU16" s="6"/>
       <c r="BV16" s="6"/>
@@ -7328,10 +7328,10 @@
         <v>96</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="CG16" s="55" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="CH16" s="6" t="s">
         <v>94</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="1" t="s">
-        <v>372</v>
+        <v>1003</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>87</v>
@@ -7420,16 +7420,16 @@
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="AX17" s="48" t="s">
         <v>98</v>
@@ -7470,7 +7470,7 @@
         <v>89</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU17" s="6"/>
       <c r="BV17" s="6"/>
@@ -7492,10 +7492,10 @@
         <v>96</v>
       </c>
       <c r="CF17" s="1" t="s">
-        <v>372</v>
+        <v>1003</v>
       </c>
       <c r="CG17" s="53" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="CH17" s="6" t="s">
         <v>94</v>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="1" t="s">
-        <v>373</v>
+        <v>1004</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>87</v>
@@ -7584,16 +7584,16 @@
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AX18" s="48" t="s">
         <v>98</v>
@@ -7656,10 +7656,10 @@
         <v>96</v>
       </c>
       <c r="CF18" s="1" t="s">
-        <v>373</v>
+        <v>1004</v>
       </c>
       <c r="CG18" s="53" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="CH18" s="6" t="s">
         <v>94</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="1" t="s">
-        <v>374</v>
+        <v>1005</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>87</v>
@@ -7748,16 +7748,16 @@
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AT19" s="4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AX19" s="48" t="s">
         <v>98</v>
@@ -7820,10 +7820,10 @@
         <v>96</v>
       </c>
       <c r="CF19" s="1" t="s">
-        <v>374</v>
+        <v>1005</v>
       </c>
       <c r="CG19" s="53" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="CH19" s="6" t="s">
         <v>94</v>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="1" t="s">
-        <v>375</v>
+        <v>1006</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>87</v>
@@ -7912,16 +7912,16 @@
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="AX20" s="48" t="s">
         <v>98</v>
@@ -7984,10 +7984,10 @@
         <v>96</v>
       </c>
       <c r="CF20" s="1" t="s">
-        <v>375</v>
+        <v>1006</v>
       </c>
       <c r="CG20" s="53" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="CH20" s="6" t="s">
         <v>94</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>87</v>
@@ -8076,16 +8076,16 @@
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="4" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AX21" s="48" t="s">
         <v>98</v>
@@ -8148,10 +8148,10 @@
         <v>96</v>
       </c>
       <c r="CF21" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="CG21" s="55" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="CH21" s="6" t="s">
         <v>94</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>87</v>
@@ -8240,16 +8240,16 @@
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="4" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="AX22" s="48" t="s">
         <v>98</v>
@@ -8312,10 +8312,10 @@
         <v>96</v>
       </c>
       <c r="CF22" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="CG22" s="55" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="CH22" s="6" t="s">
         <v>94</v>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>87</v>
@@ -8404,16 +8404,16 @@
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AX23" s="48" t="s">
         <v>98</v>
@@ -8454,7 +8454,7 @@
         <v>89</v>
       </c>
       <c r="BT23" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU23" s="6"/>
       <c r="BV23" s="6"/>
@@ -8476,10 +8476,10 @@
         <v>96</v>
       </c>
       <c r="CF23" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="CG23" s="55" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="CH23" s="6" t="s">
         <v>94</v>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>87</v>
@@ -8568,16 +8568,16 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="AX24" s="48" t="s">
         <v>98</v>
@@ -8618,7 +8618,7 @@
         <v>89</v>
       </c>
       <c r="BT24" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU24" s="6"/>
       <c r="BV24" s="6"/>
@@ -8640,10 +8640,10 @@
         <v>96</v>
       </c>
       <c r="CF24" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="CG24" s="55" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="CH24" s="6" t="s">
         <v>94</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>87</v>
@@ -8732,16 +8732,16 @@
       <c r="AR25" s="6"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="4" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="AX25" s="48" t="s">
         <v>98</v>
@@ -8782,7 +8782,7 @@
         <v>89</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU25" s="6"/>
       <c r="BV25" s="6"/>
@@ -8804,10 +8804,10 @@
         <v>96</v>
       </c>
       <c r="CF25" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="CG25" s="55" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="CH25" s="6" t="s">
         <v>94</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>87</v>
@@ -8896,16 +8896,16 @@
       <c r="AR26" s="6"/>
       <c r="AS26" s="6"/>
       <c r="AT26" s="4" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="AX26" s="48" t="s">
         <v>98</v>
@@ -8946,7 +8946,7 @@
         <v>89</v>
       </c>
       <c r="BT26" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU26" s="6"/>
       <c r="BV26" s="6"/>
@@ -8968,10 +8968,10 @@
         <v>96</v>
       </c>
       <c r="CF26" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="CG26" s="55" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="CH26" s="6" t="s">
         <v>94</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>87</v>
@@ -9060,16 +9060,16 @@
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="AX27" s="48" t="s">
         <v>98</v>
@@ -9110,7 +9110,7 @@
         <v>89</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU27" s="6"/>
       <c r="BV27" s="6"/>
@@ -9132,10 +9132,10 @@
         <v>96</v>
       </c>
       <c r="CF27" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="CG27" s="55" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="CH27" s="6" t="s">
         <v>94</v>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>87</v>
@@ -9224,16 +9224,16 @@
       <c r="AR28" s="6"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="4" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AX28" s="48" t="s">
         <v>98</v>
@@ -9296,10 +9296,10 @@
         <v>96</v>
       </c>
       <c r="CF28" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="CG28" s="55" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="CH28" s="6" t="s">
         <v>94</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>87</v>
@@ -9388,16 +9388,16 @@
       <c r="AR29" s="6"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="4" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="AX29" s="48" t="s">
         <v>98</v>
@@ -9460,10 +9460,10 @@
         <v>96</v>
       </c>
       <c r="CF29" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="CG29" s="55" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="CH29" s="6" t="s">
         <v>94</v>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>87</v>
@@ -9552,16 +9552,16 @@
       <c r="AR30" s="6"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="4" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="AX30" s="48" t="s">
         <v>98</v>
@@ -9602,7 +9602,7 @@
         <v>89</v>
       </c>
       <c r="BT30" s="1" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="BU30" s="6"/>
       <c r="BV30" s="6"/>
@@ -9624,10 +9624,10 @@
         <v>96</v>
       </c>
       <c r="CF30" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="CG30" s="55" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="CH30" s="6" t="s">
         <v>94</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>87</v>
@@ -9716,16 +9716,16 @@
       <c r="AR31" s="6"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="4" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AX31" s="48" t="s">
         <v>98</v>
@@ -9766,7 +9766,7 @@
         <v>89</v>
       </c>
       <c r="BT31" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU31" s="6"/>
       <c r="BV31" s="6"/>
@@ -9788,10 +9788,10 @@
         <v>96</v>
       </c>
       <c r="CF31" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="CG31" s="55" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="CH31" s="6" t="s">
         <v>94</v>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>87</v>
@@ -9880,16 +9880,16 @@
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
       <c r="AT32" s="4" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="AV32" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="AX32" s="48" t="s">
         <v>98</v>
@@ -9930,7 +9930,7 @@
         <v>89</v>
       </c>
       <c r="BT32" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU32" s="6"/>
       <c r="BV32" s="6"/>
@@ -9952,10 +9952,10 @@
         <v>96</v>
       </c>
       <c r="CF32" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="CG32" s="55" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="CH32" s="6" t="s">
         <v>94</v>
@@ -10000,7 +10000,7 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>87</v>
@@ -10044,16 +10044,16 @@
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="4" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="AV33" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="AW33" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AX33" s="48" t="s">
         <v>98</v>
@@ -10094,7 +10094,7 @@
         <v>89</v>
       </c>
       <c r="BT33" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU33" s="6"/>
       <c r="BV33" s="6"/>
@@ -10116,10 +10116,10 @@
         <v>96</v>
       </c>
       <c r="CF33" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="CG33" s="55" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="CH33" s="6" t="s">
         <v>94</v>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>87</v>
@@ -10208,16 +10208,16 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
       <c r="AT34" s="4" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="AV34" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="AX34" s="48" t="s">
         <v>98</v>
@@ -10258,7 +10258,7 @@
         <v>89</v>
       </c>
       <c r="BT34" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU34" s="6"/>
       <c r="BV34" s="6"/>
@@ -10280,10 +10280,10 @@
         <v>96</v>
       </c>
       <c r="CF34" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="CG34" s="55" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="CH34" s="6" t="s">
         <v>94</v>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>87</v>
@@ -10372,16 +10372,16 @@
       <c r="AR35" s="6"/>
       <c r="AS35" s="6"/>
       <c r="AT35" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="AV35" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="AX35" s="48" t="s">
         <v>98</v>
@@ -10422,7 +10422,7 @@
         <v>89</v>
       </c>
       <c r="BT35" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU35" s="6"/>
       <c r="BV35" s="6"/>
@@ -10444,10 +10444,10 @@
         <v>96</v>
       </c>
       <c r="CF35" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="CG35" s="55" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="CH35" s="6" t="s">
         <v>94</v>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="S36" s="6" t="s">
         <v>87</v>
@@ -10536,16 +10536,16 @@
       <c r="AR36" s="6"/>
       <c r="AS36" s="6"/>
       <c r="AT36" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AV36" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="AX36" s="48" t="s">
         <v>98</v>
@@ -10586,7 +10586,7 @@
         <v>89</v>
       </c>
       <c r="BT36" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU36" s="6"/>
       <c r="BV36" s="6"/>
@@ -10608,10 +10608,10 @@
         <v>96</v>
       </c>
       <c r="CF36" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="CG36" s="55" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="CH36" s="6" t="s">
         <v>94</v>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="S37" s="6" t="s">
         <v>87</v>
@@ -10700,16 +10700,16 @@
       <c r="AR37" s="6"/>
       <c r="AS37" s="6"/>
       <c r="AT37" s="4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="AX37" s="48" t="s">
         <v>98</v>
@@ -10750,7 +10750,7 @@
         <v>89</v>
       </c>
       <c r="BT37" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU37" s="6"/>
       <c r="BV37" s="6"/>
@@ -10772,10 +10772,10 @@
         <v>96</v>
       </c>
       <c r="CF37" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="CG37" s="55" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="CH37" s="6" t="s">
         <v>94</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>87</v>
@@ -10864,16 +10864,16 @@
       <c r="AR38" s="6"/>
       <c r="AS38" s="6"/>
       <c r="AT38" s="4" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="AV38" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="AW38" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AX38" s="48" t="s">
         <v>98</v>
@@ -10914,7 +10914,7 @@
         <v>89</v>
       </c>
       <c r="BT38" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU38" s="6"/>
       <c r="BV38" s="6"/>
@@ -10936,10 +10936,10 @@
         <v>96</v>
       </c>
       <c r="CF38" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="CG38" s="55" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="CH38" s="6" t="s">
         <v>94</v>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="S39" s="6" t="s">
         <v>87</v>
@@ -11028,16 +11028,16 @@
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
       <c r="AT39" s="4" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AV39" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AW39" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AX39" s="48" t="s">
         <v>98</v>
@@ -11078,7 +11078,7 @@
         <v>89</v>
       </c>
       <c r="BT39" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU39" s="6"/>
       <c r="BV39" s="6"/>
@@ -11100,10 +11100,10 @@
         <v>96</v>
       </c>
       <c r="CF39" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="CG39" s="55" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="CH39" s="6" t="s">
         <v>94</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>87</v>
@@ -11192,16 +11192,16 @@
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
       <c r="AT40" s="4" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="AV40" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="AW40" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="AX40" s="48" t="s">
         <v>98</v>
@@ -11264,10 +11264,10 @@
         <v>96</v>
       </c>
       <c r="CF40" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="CG40" s="55" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="CH40" s="6" t="s">
         <v>94</v>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="S41" s="6" t="s">
         <v>87</v>
@@ -11356,16 +11356,16 @@
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="AW41" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="AX41" s="48" t="s">
         <v>98</v>
@@ -11406,7 +11406,7 @@
         <v>89</v>
       </c>
       <c r="BT41" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU41" s="6"/>
       <c r="BV41" s="6"/>
@@ -11428,10 +11428,10 @@
         <v>96</v>
       </c>
       <c r="CF41" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="CG41" s="55" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="CH41" s="6" t="s">
         <v>94</v>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>87</v>
@@ -11520,16 +11520,16 @@
       <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="4" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="AX42" s="48" t="s">
         <v>98</v>
@@ -11592,10 +11592,10 @@
         <v>96</v>
       </c>
       <c r="CF42" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="CG42" s="55" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="CH42" s="6" t="s">
         <v>94</v>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="S43" s="6" t="s">
         <v>87</v>
@@ -11684,16 +11684,16 @@
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="4" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="AX43" s="48" t="s">
         <v>98</v>
@@ -11756,10 +11756,10 @@
         <v>96</v>
       </c>
       <c r="CF43" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="CG43" s="55" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="CH43" s="6" t="s">
         <v>94</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>87</v>
@@ -11848,16 +11848,16 @@
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
       <c r="AT44" s="4" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="AX44" s="48" t="s">
         <v>98</v>
@@ -11898,7 +11898,7 @@
         <v>89</v>
       </c>
       <c r="BT44" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU44" s="6"/>
       <c r="BV44" s="6"/>
@@ -11920,10 +11920,10 @@
         <v>96</v>
       </c>
       <c r="CF44" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="CG44" s="55" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="CH44" s="6" t="s">
         <v>94</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="S45" s="6" t="s">
         <v>87</v>
@@ -12012,16 +12012,16 @@
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="4" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="AW45" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="AX45" s="48" t="s">
         <v>98</v>
@@ -12084,10 +12084,10 @@
         <v>96</v>
       </c>
       <c r="CF45" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="CG45" s="55" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="CH45" s="6" t="s">
         <v>94</v>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>87</v>
@@ -12176,16 +12176,16 @@
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
       <c r="AT46" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="AW46" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="AX46" s="48" t="s">
         <v>98</v>
@@ -12248,10 +12248,10 @@
         <v>96</v>
       </c>
       <c r="CF46" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="CG46" s="55" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="CH46" s="6" t="s">
         <v>94</v>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="S47" s="6" t="s">
         <v>87</v>
@@ -12340,16 +12340,16 @@
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
       <c r="AT47" s="4" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="AV47" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AW47" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AX47" s="48" t="s">
         <v>98</v>
@@ -12390,7 +12390,7 @@
         <v>89</v>
       </c>
       <c r="BT47" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU47" s="6"/>
       <c r="BV47" s="6"/>
@@ -12412,10 +12412,10 @@
         <v>96</v>
       </c>
       <c r="CF47" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="CG47" s="55" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="CH47" s="6" t="s">
         <v>94</v>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>87</v>
@@ -12504,16 +12504,16 @@
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
       <c r="AT48" s="4" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="AV48" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="AW48" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AX48" s="48" t="s">
         <v>98</v>
@@ -12576,10 +12576,10 @@
         <v>96</v>
       </c>
       <c r="CF48" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="CG48" s="55" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="CH48" s="6" t="s">
         <v>94</v>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="S49" s="6" t="s">
         <v>87</v>
@@ -12668,16 +12668,16 @@
       <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
       <c r="AT49" s="4" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="AV49" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="AW49" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="AX49" s="48" t="s">
         <v>98</v>
@@ -12740,10 +12740,10 @@
         <v>96</v>
       </c>
       <c r="CF49" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="CG49" s="55" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="CH49" s="6" t="s">
         <v>94</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="S50" s="6" t="s">
         <v>87</v>
@@ -12832,16 +12832,16 @@
       <c r="AR50" s="6"/>
       <c r="AS50" s="6"/>
       <c r="AT50" s="4" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AV50" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AW50" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="AX50" s="48" t="s">
         <v>98</v>
@@ -12882,7 +12882,7 @@
         <v>89</v>
       </c>
       <c r="BT50" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU50" s="6"/>
       <c r="BV50" s="6"/>
@@ -12904,10 +12904,10 @@
         <v>96</v>
       </c>
       <c r="CF50" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="CG50" s="55" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="CH50" s="6" t="s">
         <v>94</v>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="S51" s="6" t="s">
         <v>87</v>
@@ -12996,16 +12996,16 @@
       <c r="AR51" s="6"/>
       <c r="AS51" s="6"/>
       <c r="AT51" s="4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="AV51" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="AW51" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="AX51" s="48" t="s">
         <v>98</v>
@@ -13046,7 +13046,7 @@
         <v>89</v>
       </c>
       <c r="BT51" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU51" s="6"/>
       <c r="BV51" s="6"/>
@@ -13068,10 +13068,10 @@
         <v>96</v>
       </c>
       <c r="CF51" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="CG51" s="55" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="CH51" s="6" t="s">
         <v>94</v>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="S52" s="6" t="s">
         <v>87</v>
@@ -13160,16 +13160,16 @@
       <c r="AR52" s="6"/>
       <c r="AS52" s="6"/>
       <c r="AT52" s="4" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="AV52" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AW52" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="AX52" s="48" t="s">
         <v>98</v>
@@ -13210,7 +13210,7 @@
         <v>89</v>
       </c>
       <c r="BT52" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU52" s="6"/>
       <c r="BV52" s="6"/>
@@ -13232,10 +13232,10 @@
         <v>96</v>
       </c>
       <c r="CF52" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="CG52" s="55" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="CH52" s="6" t="s">
         <v>94</v>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S53" s="6" t="s">
         <v>87</v>
@@ -13324,16 +13324,16 @@
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
       <c r="AT53" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="AV53" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="AW53" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="AX53" s="48" t="s">
         <v>98</v>
@@ -13374,7 +13374,7 @@
         <v>89</v>
       </c>
       <c r="BT53" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU53" s="6"/>
       <c r="BV53" s="6"/>
@@ -13396,10 +13396,10 @@
         <v>96</v>
       </c>
       <c r="CF53" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="CG53" s="55" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="CH53" s="6" t="s">
         <v>94</v>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="S54" s="6" t="s">
         <v>87</v>
@@ -13488,16 +13488,16 @@
       <c r="AR54" s="6"/>
       <c r="AS54" s="6"/>
       <c r="AT54" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="AV54" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="AW54" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="AX54" s="48" t="s">
         <v>98</v>
@@ -13560,10 +13560,10 @@
         <v>96</v>
       </c>
       <c r="CF54" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="CG54" s="55" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="CH54" s="6" t="s">
         <v>94</v>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="S55" s="25" t="s">
         <v>87</v>
@@ -13652,16 +13652,16 @@
       <c r="AR55" s="25"/>
       <c r="AS55" s="25"/>
       <c r="AT55" s="5" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="AU55" s="26" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="AV55" s="26" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="AW55" s="26" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="AX55" s="49" t="s">
         <v>98</v>
@@ -13702,7 +13702,7 @@
         <v>89</v>
       </c>
       <c r="BT55" s="26" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU55" s="25"/>
       <c r="BV55" s="25"/>
@@ -13724,10 +13724,10 @@
         <v>96</v>
       </c>
       <c r="CF55" s="26" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="CG55" s="56" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="CH55" s="25" t="s">
         <v>94</v>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="S56" s="19" t="s">
         <v>87</v>
@@ -13816,19 +13816,19 @@
       <c r="AR56" s="19"/>
       <c r="AS56" s="19"/>
       <c r="AT56" s="30" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="AU56" s="20" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="AV56" s="20" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="AW56" s="20" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="AX56" s="65" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY56" s="31"/>
       <c r="AZ56" s="19"/>
@@ -13866,7 +13866,7 @@
         <v>89</v>
       </c>
       <c r="BT56" s="20" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU56" s="19"/>
       <c r="BV56" s="19"/>
@@ -13888,10 +13888,10 @@
         <v>96</v>
       </c>
       <c r="CF56" s="20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="CG56" s="68" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="CH56" s="19" t="s">
         <v>94</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="S57" s="6" t="s">
         <v>87</v>
@@ -13980,19 +13980,19 @@
       <c r="AR57" s="6"/>
       <c r="AS57" s="6"/>
       <c r="AT57" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AV57" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AW57" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="AX57" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="6"/>
@@ -14052,10 +14052,10 @@
         <v>96</v>
       </c>
       <c r="CF57" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="CG57" s="57" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="CH57" s="6" t="s">
         <v>94</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="S58" s="6" t="s">
         <v>87</v>
@@ -14144,19 +14144,19 @@
       <c r="AR58" s="6"/>
       <c r="AS58" s="6"/>
       <c r="AT58" s="4" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="AV58" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AW58" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="AX58" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="6"/>
@@ -14194,7 +14194,7 @@
         <v>89</v>
       </c>
       <c r="BT58" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU58" s="6"/>
       <c r="BV58" s="6"/>
@@ -14216,10 +14216,10 @@
         <v>96</v>
       </c>
       <c r="CF58" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="CG58" s="57" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="CH58" s="6" t="s">
         <v>94</v>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="S59" s="6" t="s">
         <v>87</v>
@@ -14308,19 +14308,19 @@
       <c r="AR59" s="6"/>
       <c r="AS59" s="6"/>
       <c r="AT59" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="AV59" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="AW59" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="AX59" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="6"/>
@@ -14358,7 +14358,7 @@
         <v>89</v>
       </c>
       <c r="BT59" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU59" s="6"/>
       <c r="BV59" s="6"/>
@@ -14380,10 +14380,10 @@
         <v>96</v>
       </c>
       <c r="CF59" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="CG59" s="58" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="CH59" s="6" t="s">
         <v>94</v>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>87</v>
@@ -14472,19 +14472,19 @@
       <c r="AR60" s="6"/>
       <c r="AS60" s="6"/>
       <c r="AT60" s="4" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="AV60" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="AW60" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="AX60" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="6"/>
@@ -14522,7 +14522,7 @@
         <v>89</v>
       </c>
       <c r="BT60" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU60" s="6"/>
       <c r="BV60" s="6"/>
@@ -14544,10 +14544,10 @@
         <v>96</v>
       </c>
       <c r="CF60" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="CG60" s="57" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="CH60" s="6" t="s">
         <v>94</v>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="S61" s="6" t="s">
         <v>87</v>
@@ -14636,19 +14636,19 @@
       <c r="AR61" s="6"/>
       <c r="AS61" s="6"/>
       <c r="AT61" s="4" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="AW61" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="AX61" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="6"/>
@@ -14686,7 +14686,7 @@
         <v>89</v>
       </c>
       <c r="BT61" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU61" s="6"/>
       <c r="BV61" s="6"/>
@@ -14708,10 +14708,10 @@
         <v>96</v>
       </c>
       <c r="CF61" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="CG61" s="57" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="CH61" s="6" t="s">
         <v>94</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="S62" s="6" t="s">
         <v>87</v>
@@ -14800,19 +14800,19 @@
       <c r="AR62" s="6"/>
       <c r="AS62" s="6"/>
       <c r="AT62" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="AV62" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="AW62" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="AX62" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="6"/>
@@ -14872,10 +14872,10 @@
         <v>96</v>
       </c>
       <c r="CF62" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="CG62" s="57" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="CH62" s="6" t="s">
         <v>94</v>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="S63" s="6" t="s">
         <v>87</v>
@@ -14964,19 +14964,19 @@
       <c r="AR63" s="6"/>
       <c r="AS63" s="6"/>
       <c r="AT63" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="AV63" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AW63" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="AX63" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="6"/>
@@ -15036,10 +15036,10 @@
         <v>96</v>
       </c>
       <c r="CF63" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="CG63" s="57" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="CH63" s="6" t="s">
         <v>94</v>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="S64" s="6" t="s">
         <v>87</v>
@@ -15128,19 +15128,19 @@
       <c r="AR64" s="6"/>
       <c r="AS64" s="6"/>
       <c r="AT64" s="4" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AV64" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AW64" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="AX64" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="6"/>
@@ -15178,7 +15178,7 @@
         <v>89</v>
       </c>
       <c r="BT64" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU64" s="6"/>
       <c r="BV64" s="6"/>
@@ -15200,10 +15200,10 @@
         <v>96</v>
       </c>
       <c r="CF64" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="CG64" s="57" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="CH64" s="6" t="s">
         <v>94</v>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="S65" s="6" t="s">
         <v>87</v>
@@ -15292,19 +15292,19 @@
       <c r="AR65" s="6"/>
       <c r="AS65" s="6"/>
       <c r="AT65" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="AV65" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="AW65" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="AX65" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="6"/>
@@ -15342,7 +15342,7 @@
         <v>89</v>
       </c>
       <c r="BT65" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU65" s="6"/>
       <c r="BV65" s="6"/>
@@ -15364,10 +15364,10 @@
         <v>96</v>
       </c>
       <c r="CF65" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="CG65" s="57" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="CH65" s="6" t="s">
         <v>94</v>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="S66" s="6" t="s">
         <v>87</v>
@@ -15456,19 +15456,19 @@
       <c r="AR66" s="6"/>
       <c r="AS66" s="6"/>
       <c r="AT66" s="4" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="AV66" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="AW66" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="AX66" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="6"/>
@@ -15506,7 +15506,7 @@
         <v>89</v>
       </c>
       <c r="BT66" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU66" s="6"/>
       <c r="BV66" s="6"/>
@@ -15528,10 +15528,10 @@
         <v>96</v>
       </c>
       <c r="CF66" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="CG66" s="57" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="CH66" s="6" t="s">
         <v>94</v>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="S67" s="6" t="s">
         <v>87</v>
@@ -15620,19 +15620,19 @@
       <c r="AR67" s="6"/>
       <c r="AS67" s="6"/>
       <c r="AT67" s="4" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="AV67" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="AW67" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AX67" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="6"/>
@@ -15670,7 +15670,7 @@
         <v>89</v>
       </c>
       <c r="BT67" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU67" s="6"/>
       <c r="BV67" s="6"/>
@@ -15692,10 +15692,10 @@
         <v>96</v>
       </c>
       <c r="CF67" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="CG67" s="57" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="CH67" s="6" t="s">
         <v>94</v>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="S68" s="6" t="s">
         <v>87</v>
@@ -15784,19 +15784,19 @@
       <c r="AR68" s="6"/>
       <c r="AS68" s="6"/>
       <c r="AT68" s="4" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="AV68" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="AW68" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="AX68" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY68" s="7"/>
       <c r="AZ68" s="6"/>
@@ -15834,7 +15834,7 @@
         <v>89</v>
       </c>
       <c r="BT68" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU68" s="6"/>
       <c r="BV68" s="6"/>
@@ -15856,10 +15856,10 @@
         <v>96</v>
       </c>
       <c r="CF68" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="CG68" s="57" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="CH68" s="6" t="s">
         <v>94</v>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="S69" s="6" t="s">
         <v>87</v>
@@ -15948,19 +15948,19 @@
       <c r="AR69" s="6"/>
       <c r="AS69" s="6"/>
       <c r="AT69" s="4" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AV69" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="AW69" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="AX69" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY69" s="7"/>
       <c r="AZ69" s="6"/>
@@ -15998,7 +15998,7 @@
         <v>89</v>
       </c>
       <c r="BT69" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU69" s="6"/>
       <c r="BV69" s="6"/>
@@ -16020,10 +16020,10 @@
         <v>96</v>
       </c>
       <c r="CF69" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="CG69" s="57" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="CH69" s="6" t="s">
         <v>94</v>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="S70" s="6" t="s">
         <v>87</v>
@@ -16112,19 +16112,19 @@
       <c r="AR70" s="6"/>
       <c r="AS70" s="6"/>
       <c r="AT70" s="4" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="AV70" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="AW70" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="AX70" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY70" s="7"/>
       <c r="AZ70" s="6"/>
@@ -16162,7 +16162,7 @@
         <v>89</v>
       </c>
       <c r="BT70" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU70" s="6"/>
       <c r="BV70" s="6"/>
@@ -16184,10 +16184,10 @@
         <v>96</v>
       </c>
       <c r="CF70" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="CG70" s="57" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="CH70" s="6" t="s">
         <v>94</v>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="S71" s="6" t="s">
         <v>87</v>
@@ -16276,19 +16276,19 @@
       <c r="AR71" s="6"/>
       <c r="AS71" s="6"/>
       <c r="AT71" s="4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="AV71" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="AW71" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="AX71" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY71" s="7"/>
       <c r="AZ71" s="6"/>
@@ -16326,7 +16326,7 @@
         <v>89</v>
       </c>
       <c r="BT71" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU71" s="6"/>
       <c r="BV71" s="6"/>
@@ -16348,10 +16348,10 @@
         <v>96</v>
       </c>
       <c r="CF71" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="CG71" s="57" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="CH71" s="6" t="s">
         <v>94</v>
@@ -16396,7 +16396,7 @@
       </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="S72" s="6" t="s">
         <v>87</v>
@@ -16440,19 +16440,19 @@
       <c r="AR72" s="6"/>
       <c r="AS72" s="6"/>
       <c r="AT72" s="4" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="AV72" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="AW72" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AX72" s="48" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY72" s="7"/>
       <c r="AZ72" s="6"/>
@@ -16512,10 +16512,10 @@
         <v>96</v>
       </c>
       <c r="CF72" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="CG72" s="57" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="CH72" s="6" t="s">
         <v>94</v>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="S73" s="25" t="s">
         <v>87</v>
@@ -16604,19 +16604,19 @@
       <c r="AR73" s="25"/>
       <c r="AS73" s="25"/>
       <c r="AT73" s="5" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="AU73" s="26" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="AV73" s="26" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="AW73" s="26" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="AX73" s="49" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AY73" s="27"/>
       <c r="AZ73" s="25"/>
@@ -16654,7 +16654,7 @@
         <v>89</v>
       </c>
       <c r="BT73" s="26" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU73" s="25"/>
       <c r="BV73" s="25"/>
@@ -16676,10 +16676,10 @@
         <v>96</v>
       </c>
       <c r="CF73" s="26" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="CG73" s="59" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="CH73" s="25" t="s">
         <v>94</v>
@@ -16724,7 +16724,7 @@
       </c>
       <c r="Q74" s="19"/>
       <c r="R74" s="20" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="S74" s="19" t="s">
         <v>87</v>
@@ -16768,16 +16768,16 @@
       <c r="AR74" s="19"/>
       <c r="AS74" s="19"/>
       <c r="AT74" s="30" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="AU74" s="20" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="AV74" s="20" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="AW74" s="20" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="AX74" s="65" t="s">
         <v>100</v>
@@ -16840,10 +16840,10 @@
         <v>96</v>
       </c>
       <c r="CF74" s="20" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="CG74" s="83" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="CH74" s="19" t="s">
         <v>94</v>
@@ -16888,7 +16888,7 @@
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="S75" s="6" t="s">
         <v>87</v>
@@ -16932,16 +16932,16 @@
       <c r="AR75" s="6"/>
       <c r="AS75" s="6"/>
       <c r="AT75" s="4" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="AV75" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="AW75" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="AX75" s="48" t="s">
         <v>100</v>
@@ -17004,10 +17004,10 @@
         <v>96</v>
       </c>
       <c r="CF75" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="CG75" s="55" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="CH75" s="6" t="s">
         <v>94</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="S76" s="6" t="s">
         <v>87</v>
@@ -17096,16 +17096,16 @@
       <c r="AR76" s="6"/>
       <c r="AS76" s="6"/>
       <c r="AT76" s="4" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AV76" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="AW76" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="AX76" s="48" t="s">
         <v>100</v>
@@ -17146,7 +17146,7 @@
         <v>89</v>
       </c>
       <c r="BT76" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU76" s="6"/>
       <c r="BV76" s="6"/>
@@ -17168,10 +17168,10 @@
         <v>96</v>
       </c>
       <c r="CF76" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="CG76" s="55" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="CH76" s="6" t="s">
         <v>94</v>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="S77" s="25" t="s">
         <v>87</v>
@@ -17260,16 +17260,16 @@
       <c r="AR77" s="25"/>
       <c r="AS77" s="25"/>
       <c r="AT77" s="5" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="AU77" s="26" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="AV77" s="26" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="AW77" s="26" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="AX77" s="49" t="s">
         <v>100</v>
@@ -17310,7 +17310,7 @@
         <v>89</v>
       </c>
       <c r="BT77" s="26" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="BU77" s="25"/>
       <c r="BV77" s="25"/>
@@ -17332,10 +17332,10 @@
         <v>96</v>
       </c>
       <c r="CF77" s="26" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="CG77" s="56" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="CH77" s="25" t="s">
         <v>94</v>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="Q78" s="19"/>
       <c r="R78" s="20" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="S78" s="19" t="s">
         <v>87</v>
@@ -17424,16 +17424,16 @@
       <c r="AR78" s="19"/>
       <c r="AS78" s="19"/>
       <c r="AT78" s="30" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="AU78" s="20" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="AV78" s="20" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="AW78" s="20" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="AX78" s="65" t="s">
         <v>99</v>
@@ -17496,10 +17496,10 @@
         <v>96</v>
       </c>
       <c r="CF78" s="20" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="CG78" s="83" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="CH78" s="19" t="s">
         <v>94</v>
@@ -17544,7 +17544,7 @@
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="S79" s="6" t="s">
         <v>87</v>
@@ -17588,16 +17588,16 @@
       <c r="AR79" s="6"/>
       <c r="AS79" s="6"/>
       <c r="AT79" s="4" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="AV79" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="AW79" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="AX79" s="48" t="s">
         <v>99</v>
@@ -17660,10 +17660,10 @@
         <v>96</v>
       </c>
       <c r="CF79" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="CG79" s="55" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="CH79" s="6" t="s">
         <v>94</v>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="Q80" s="25"/>
       <c r="R80" s="26" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="S80" s="25" t="s">
         <v>87</v>
@@ -17752,16 +17752,16 @@
       <c r="AR80" s="25"/>
       <c r="AS80" s="25"/>
       <c r="AT80" s="5" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="AU80" s="26" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="AV80" s="26" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="AW80" s="26" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="AX80" s="49" t="s">
         <v>99</v>
@@ -17824,10 +17824,10 @@
         <v>96</v>
       </c>
       <c r="CF80" s="26" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="CG80" s="56" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="CH80" s="25" t="s">
         <v>94</v>
@@ -17872,7 +17872,7 @@
       </c>
       <c r="Q81" s="19"/>
       <c r="R81" s="20" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="S81" s="19" t="s">
         <v>87</v>
@@ -17916,19 +17916,19 @@
       <c r="AR81" s="19"/>
       <c r="AS81" s="19"/>
       <c r="AT81" s="30" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="AU81" s="20" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="AV81" s="20" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AW81" s="20" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="AX81" s="65" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY81" s="31"/>
       <c r="AZ81" s="19"/>
@@ -17966,7 +17966,7 @@
         <v>89</v>
       </c>
       <c r="BT81" s="20" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU81" s="19"/>
       <c r="BV81" s="19"/>
@@ -17988,10 +17988,10 @@
         <v>96</v>
       </c>
       <c r="CF81" s="20" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="CG81" s="68" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="CH81" s="19" t="s">
         <v>94</v>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="S82" s="6" t="s">
         <v>87</v>
@@ -18080,19 +18080,19 @@
       <c r="AR82" s="6"/>
       <c r="AS82" s="6"/>
       <c r="AT82" s="4" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="AV82" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="AW82" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="AX82" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="6"/>
@@ -18130,7 +18130,7 @@
         <v>89</v>
       </c>
       <c r="BT82" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU82" s="6"/>
       <c r="BV82" s="6"/>
@@ -18152,10 +18152,10 @@
         <v>96</v>
       </c>
       <c r="CF82" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="CG82" s="57" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="CH82" s="6" t="s">
         <v>94</v>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="S83" s="6" t="s">
         <v>87</v>
@@ -18244,19 +18244,19 @@
       <c r="AR83" s="6"/>
       <c r="AS83" s="6"/>
       <c r="AT83" s="4" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="AV83" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="AW83" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="AX83" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="6"/>
@@ -18294,7 +18294,7 @@
         <v>89</v>
       </c>
       <c r="BT83" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU83" s="6"/>
       <c r="BV83" s="6"/>
@@ -18316,10 +18316,10 @@
         <v>96</v>
       </c>
       <c r="CF83" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="CG83" s="57" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="CH83" s="6" t="s">
         <v>94</v>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="S84" s="6" t="s">
         <v>87</v>
@@ -18408,19 +18408,19 @@
       <c r="AR84" s="6"/>
       <c r="AS84" s="6"/>
       <c r="AT84" s="4" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="AV84" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="AW84" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="AX84" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="6"/>
@@ -18458,7 +18458,7 @@
         <v>89</v>
       </c>
       <c r="BT84" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="BU84" s="6"/>
       <c r="BV84" s="6"/>
@@ -18480,10 +18480,10 @@
         <v>96</v>
       </c>
       <c r="CF84" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="CG84" s="57" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="CH84" s="6" t="s">
         <v>94</v>
@@ -18528,7 +18528,7 @@
       </c>
       <c r="Q85" s="6"/>
       <c r="R85" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="S85" s="6" t="s">
         <v>87</v>
@@ -18572,19 +18572,19 @@
       <c r="AR85" s="6"/>
       <c r="AS85" s="6"/>
       <c r="AT85" s="4" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AV85" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="AW85" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AX85" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="6"/>
@@ -18622,7 +18622,7 @@
         <v>89</v>
       </c>
       <c r="BT85" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU85" s="6"/>
       <c r="BV85" s="6"/>
@@ -18644,10 +18644,10 @@
         <v>96</v>
       </c>
       <c r="CF85" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="CG85" s="57" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="CH85" s="6" t="s">
         <v>94</v>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="S86" s="6" t="s">
         <v>87</v>
@@ -18736,19 +18736,19 @@
       <c r="AR86" s="6"/>
       <c r="AS86" s="6"/>
       <c r="AT86" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="AV86" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="AW86" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="AX86" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="6"/>
@@ -18808,10 +18808,10 @@
         <v>96</v>
       </c>
       <c r="CF86" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="CG86" s="57" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="CH86" s="6" t="s">
         <v>94</v>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="Q87" s="6"/>
       <c r="R87" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="S87" s="6" t="s">
         <v>87</v>
@@ -18900,19 +18900,19 @@
       <c r="AR87" s="6"/>
       <c r="AS87" s="6"/>
       <c r="AT87" s="4" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="AV87" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AW87" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="AX87" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="6"/>
@@ -18972,10 +18972,10 @@
         <v>96</v>
       </c>
       <c r="CF87" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="CG87" s="57" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="CH87" s="6" t="s">
         <v>94</v>
@@ -19020,7 +19020,7 @@
       </c>
       <c r="Q88" s="6"/>
       <c r="R88" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="S88" s="6" t="s">
         <v>87</v>
@@ -19064,19 +19064,19 @@
       <c r="AR88" s="6"/>
       <c r="AS88" s="6"/>
       <c r="AT88" s="4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="AV88" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AW88" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="AX88" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY88" s="7"/>
       <c r="AZ88" s="6"/>
@@ -19114,7 +19114,7 @@
         <v>89</v>
       </c>
       <c r="BT88" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BU88" s="6"/>
       <c r="BV88" s="6"/>
@@ -19136,10 +19136,10 @@
         <v>96</v>
       </c>
       <c r="CF88" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="CG88" s="57" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="CH88" s="6" t="s">
         <v>94</v>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="S89" s="6" t="s">
         <v>87</v>
@@ -19228,19 +19228,19 @@
       <c r="AR89" s="6"/>
       <c r="AS89" s="6"/>
       <c r="AT89" s="4" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="AV89" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="AW89" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="AX89" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY89" s="7"/>
       <c r="AZ89" s="6"/>
@@ -19278,7 +19278,7 @@
         <v>89</v>
       </c>
       <c r="BT89" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BU89" s="6"/>
       <c r="BV89" s="6"/>
@@ -19300,10 +19300,10 @@
         <v>96</v>
       </c>
       <c r="CF89" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="CG89" s="57" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="CH89" s="6" t="s">
         <v>94</v>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>87</v>
@@ -19392,19 +19392,19 @@
       <c r="AR90" s="6"/>
       <c r="AS90" s="6"/>
       <c r="AT90" s="4" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="AV90" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="AW90" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="AX90" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY90" s="7"/>
       <c r="AZ90" s="6"/>
@@ -19442,7 +19442,7 @@
         <v>89</v>
       </c>
       <c r="BT90" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BU90" s="6"/>
       <c r="BV90" s="6"/>
@@ -19464,10 +19464,10 @@
         <v>96</v>
       </c>
       <c r="CF90" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="CG90" s="57" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="CH90" s="6" t="s">
         <v>94</v>
@@ -19512,7 +19512,7 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S91" s="6" t="s">
         <v>87</v>
@@ -19556,19 +19556,19 @@
       <c r="AR91" s="6"/>
       <c r="AS91" s="6"/>
       <c r="AT91" s="4" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="AV91" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="AW91" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="AX91" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="6"/>
@@ -19628,10 +19628,10 @@
         <v>96</v>
       </c>
       <c r="CF91" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CG91" s="57" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="CH91" s="6" t="s">
         <v>94</v>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="S92" s="6" t="s">
         <v>87</v>
@@ -19720,19 +19720,19 @@
       <c r="AR92" s="6"/>
       <c r="AS92" s="6"/>
       <c r="AT92" s="4" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="AV92" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="AW92" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AX92" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY92" s="7"/>
       <c r="AZ92" s="6"/>
@@ -19792,10 +19792,10 @@
         <v>96</v>
       </c>
       <c r="CF92" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="CG92" s="58" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="CH92" s="6" t="s">
         <v>94</v>
@@ -19840,7 +19840,7 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="S93" s="6" t="s">
         <v>87</v>
@@ -19884,19 +19884,19 @@
       <c r="AR93" s="6"/>
       <c r="AS93" s="6"/>
       <c r="AT93" s="4" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="AV93" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="AW93" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="AX93" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY93" s="7"/>
       <c r="AZ93" s="6"/>
@@ -19934,7 +19934,7 @@
         <v>89</v>
       </c>
       <c r="BT93" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU93" s="6"/>
       <c r="BV93" s="6"/>
@@ -19956,10 +19956,10 @@
         <v>96</v>
       </c>
       <c r="CF93" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="CG93" s="58" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="CH93" s="6" t="s">
         <v>94</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="S94" s="6" t="s">
         <v>87</v>
@@ -20048,19 +20048,19 @@
       <c r="AR94" s="6"/>
       <c r="AS94" s="6"/>
       <c r="AT94" s="4" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="AV94" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="AW94" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="AX94" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY94" s="7"/>
       <c r="AZ94" s="6"/>
@@ -20098,7 +20098,7 @@
         <v>89</v>
       </c>
       <c r="BT94" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU94" s="6"/>
       <c r="BV94" s="6"/>
@@ -20120,10 +20120,10 @@
         <v>96</v>
       </c>
       <c r="CF94" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="CG94" s="58" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="CH94" s="6" t="s">
         <v>94</v>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="S95" s="6" t="s">
         <v>87</v>
@@ -20212,19 +20212,19 @@
       <c r="AR95" s="6"/>
       <c r="AS95" s="6"/>
       <c r="AT95" s="4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="AV95" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="AW95" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="AX95" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="6"/>
@@ -20262,7 +20262,7 @@
         <v>89</v>
       </c>
       <c r="BT95" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU95" s="6"/>
       <c r="BV95" s="6"/>
@@ -20284,10 +20284,10 @@
         <v>96</v>
       </c>
       <c r="CF95" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="CG95" s="57" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="CH95" s="6" t="s">
         <v>94</v>
@@ -20332,7 +20332,7 @@
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="S96" s="6" t="s">
         <v>87</v>
@@ -20376,19 +20376,19 @@
       <c r="AR96" s="6"/>
       <c r="AS96" s="6"/>
       <c r="AT96" s="4" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="AV96" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="AW96" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="AX96" s="48" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY96" s="7"/>
       <c r="AZ96" s="6"/>
@@ -20448,10 +20448,10 @@
         <v>96</v>
       </c>
       <c r="CF96" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="CG96" s="57" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="CH96" s="6" t="s">
         <v>94</v>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="26" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="S97" s="25" t="s">
         <v>87</v>
@@ -20540,19 +20540,19 @@
       <c r="AR97" s="25"/>
       <c r="AS97" s="25"/>
       <c r="AT97" s="5" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="AU97" s="26" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AV97" s="26" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AW97" s="26" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="AX97" s="49" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AY97" s="27"/>
       <c r="AZ97" s="25"/>
@@ -20612,10 +20612,10 @@
         <v>96</v>
       </c>
       <c r="CF97" s="26" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="CG97" s="59" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="CH97" s="25" t="s">
         <v>94</v>
@@ -20659,8 +20659,8 @@
         <v>86</v>
       </c>
       <c r="Q98" s="15"/>
-      <c r="R98" s="16" t="s">
-        <v>453</v>
+      <c r="R98" s="20" t="s">
+        <v>443</v>
       </c>
       <c r="S98" s="15" t="s">
         <v>87</v>
@@ -20704,19 +20704,19 @@
       <c r="AR98" s="15"/>
       <c r="AS98" s="15"/>
       <c r="AT98" s="14" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AU98" s="16" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="AV98" s="16" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="AW98" s="16" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="AX98" s="77" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AY98" s="17"/>
       <c r="AZ98" s="15"/>
@@ -20775,11 +20775,11 @@
       <c r="CE98" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CF98" s="16" t="s">
-        <v>453</v>
+      <c r="CF98" s="20" t="s">
+        <v>443</v>
       </c>
       <c r="CG98" s="80" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="CH98" s="15" t="s">
         <v>94</v>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="Q99" s="6"/>
       <c r="R99" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="S99" s="6" t="s">
         <v>87</v>
@@ -20868,19 +20868,19 @@
       <c r="AR99" s="6"/>
       <c r="AS99" s="6"/>
       <c r="AT99" s="4" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="AV99" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="AW99" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="AX99" s="48" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="6"/>
@@ -20918,7 +20918,7 @@
         <v>89</v>
       </c>
       <c r="BT99" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="BU99" s="6"/>
       <c r="BV99" s="6"/>
@@ -20940,10 +20940,10 @@
         <v>96</v>
       </c>
       <c r="CF99" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="CG99" s="58" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="CH99" s="6" t="s">
         <v>94</v>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="Q100" s="6"/>
       <c r="R100" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="S100" s="6" t="s">
         <v>87</v>
@@ -21032,19 +21032,19 @@
       <c r="AR100" s="6"/>
       <c r="AS100" s="6"/>
       <c r="AT100" s="4" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AV100" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="AW100" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="AX100" s="48" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AY100" s="7"/>
       <c r="AZ100" s="6"/>
@@ -21082,7 +21082,7 @@
         <v>89</v>
       </c>
       <c r="BT100" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="BU100" s="6"/>
       <c r="BV100" s="6"/>
@@ -21104,10 +21104,10 @@
         <v>96</v>
       </c>
       <c r="CF100" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="CG100" s="57" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="CH100" s="6" t="s">
         <v>94</v>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="Q101" s="6"/>
       <c r="R101" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="S101" s="6" t="s">
         <v>87</v>
@@ -21196,19 +21196,19 @@
       <c r="AR101" s="6"/>
       <c r="AS101" s="6"/>
       <c r="AT101" s="4" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="AV101" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AW101" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AX101" s="48" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="6"/>
@@ -21246,7 +21246,7 @@
         <v>89</v>
       </c>
       <c r="BT101" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU101" s="6"/>
       <c r="BV101" s="6"/>
@@ -21268,10 +21268,10 @@
         <v>96</v>
       </c>
       <c r="CF101" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CG101" s="58" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="CH101" s="6" t="s">
         <v>94</v>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="Q102" s="25"/>
       <c r="R102" s="26" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="S102" s="25" t="s">
         <v>87</v>
@@ -21360,19 +21360,19 @@
       <c r="AR102" s="25"/>
       <c r="AS102" s="25"/>
       <c r="AT102" s="5" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="AU102" s="26" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="AV102" s="26" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="AW102" s="26" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="AX102" s="49" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AY102" s="27"/>
       <c r="AZ102" s="25"/>
@@ -21410,7 +21410,7 @@
         <v>89</v>
       </c>
       <c r="BT102" s="26" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BU102" s="25"/>
       <c r="BV102" s="25"/>
@@ -21432,10 +21432,10 @@
         <v>96</v>
       </c>
       <c r="CF102" s="26" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="CG102" s="60" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="CH102" s="25" t="s">
         <v>94</v>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="Q103" s="19"/>
       <c r="R103" s="20" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="S103" s="19" t="s">
         <v>87</v>
@@ -21524,19 +21524,19 @@
       <c r="AR103" s="19"/>
       <c r="AS103" s="19"/>
       <c r="AT103" s="30" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="AU103" s="20" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="AV103" s="20" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="AW103" s="20" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="AX103" s="65" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="AY103" s="31"/>
       <c r="AZ103" s="19"/>
@@ -21596,10 +21596,10 @@
         <v>96</v>
       </c>
       <c r="CF103" s="20" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="CG103" s="68" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="CH103" s="19" t="s">
         <v>94</v>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="Q104" s="6"/>
       <c r="R104" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="S104" s="6" t="s">
         <v>87</v>
@@ -21688,19 +21688,19 @@
       <c r="AR104" s="6"/>
       <c r="AS104" s="6"/>
       <c r="AT104" s="4" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="AV104" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="AW104" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="AX104" s="48" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="AY104" s="7"/>
       <c r="AZ104" s="6"/>
@@ -21760,10 +21760,10 @@
         <v>96</v>
       </c>
       <c r="CF104" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="CG104" s="57" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="CH104" s="6" t="s">
         <v>94</v>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="S105" s="6" t="s">
         <v>87</v>
@@ -21852,19 +21852,19 @@
       <c r="AR105" s="6"/>
       <c r="AS105" s="6"/>
       <c r="AT105" s="4" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="AV105" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="AW105" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="AX105" s="48" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="AY105" s="7"/>
       <c r="AZ105" s="6"/>
@@ -21924,10 +21924,10 @@
         <v>96</v>
       </c>
       <c r="CF105" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="CG105" s="57" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="CH105" s="6" t="s">
         <v>94</v>
@@ -21972,7 +21972,7 @@
       </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="S106" s="6" t="s">
         <v>87</v>
@@ -22016,19 +22016,19 @@
       <c r="AR106" s="6"/>
       <c r="AS106" s="6"/>
       <c r="AT106" s="4" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="AU106" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AV106" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AW106" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AX106" s="48" t="s">
         <v>880</v>
-      </c>
-      <c r="AV106" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AW106" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="AX106" s="48" t="s">
-        <v>890</v>
       </c>
       <c r="AY106" s="7"/>
       <c r="AZ106" s="6"/>
@@ -22088,10 +22088,10 @@
         <v>96</v>
       </c>
       <c r="CF106" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="CG106" s="57" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="CH106" s="6" t="s">
         <v>94</v>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="Q107" s="25"/>
       <c r="R107" s="26" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="S107" s="25" t="s">
         <v>87</v>
@@ -22180,19 +22180,19 @@
       <c r="AR107" s="25"/>
       <c r="AS107" s="25"/>
       <c r="AT107" s="5" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="AU107" s="26" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="AV107" s="26" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="AW107" s="26" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="AX107" s="49" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="AY107" s="27"/>
       <c r="AZ107" s="25"/>
@@ -22230,7 +22230,7 @@
         <v>89</v>
       </c>
       <c r="BT107" s="26" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BU107" s="25"/>
       <c r="BV107" s="25"/>
@@ -22252,10 +22252,10 @@
         <v>96</v>
       </c>
       <c r="CF107" s="26" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="CG107" s="59" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="CH107" s="25" t="s">
         <v>94</v>
